--- a/biology/Botanique/Monika_Christmann/Monika_Christmann.xlsx
+++ b/biology/Botanique/Monika_Christmann/Monika_Christmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Monika Christmann, né le 5 novembre 1959 à Montabaur, est technologue en boissons, œnologue et directrice de l'Institut d'œnologie de l'Université des sciences appliquées de Geisenheim. De juillet 2015 au 6 juillet 2018, elle a été Présidente de l'Organisation internationale de la vigne et du vin (OIV).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Monika Christmann a étudié la technologie des boissons de 1980 à 1983 à la Fachhochschule Geisenheim. Elle a terminé ses études d'œnologie à l'Université de Giessen en 1985 et a obtenu son diplôme. En 1988, elle a obtenu son doctorat avec une thèse sur "Les changements d'ingrédients avec une attention particulière aux arômes du vin lors de la désalcoolisation des vins par distillation combinée dialyse-aspiration".
 Elle a commencé son travail pratique en tant que responsable qualité en recherche et développement chez H. Sichel Söhne GmbH à Alzey. De 1991 à 1993, elle a travaillé comme responsable de laboratoire et "vinificatrice" chez Simi Winery en Californie. En 1994, Monika Christmann a repris la direction du département de gestion des caves de la station de recherche de Geisenheim. Parallèlement, elle a été professeur de gestion de cave à la université de sciences appliquées de Wiesbaden dans le domaine de la viticulture et de la technologie des boissons. Elle poursuit ces deux activités depuis 1994, aujourd'hui à la université de sciences appliquées de Geisenheim et à l'Institut d'œnologie. Elle est également chargée de cours à l'Université Justus Liebig de Giessen. Ses activités de recherche portent sur des questions telles que la gestion de l'alcool dans la production du vin et les agents allergènes de traitement du vin.
